--- a/data/trans_camb/P25_8-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 3,61</t>
+          <t>-11,88; 8,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 11,25</t>
+          <t>-13,79; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,78</t>
+          <t>-10,32; 11,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 15,88</t>
+          <t>-16,35; 1,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 0,33</t>
+          <t>-13,46; 4,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 9,55</t>
+          <t>-7,29; 12,73</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 1,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; 2,07</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 8,75</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,91%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,4%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>-26,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-20,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 21,85</t>
+          <t>-43,13; 48,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 69,26</t>
+          <t>-49,59; 35,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 3,3</t>
+          <t>-39,54; 65,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 64,11</t>
+          <t>-48,39; 7,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 1,46</t>
+          <t>-40,55; 20,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 42,39</t>
+          <t>-22,05; 52,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,57; 7,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,08; 8,84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-20,64; 38,23</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 6,96</t>
+          <t>-21,64; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 6,21</t>
+          <t>-17,77; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 1,99</t>
+          <t>-16,51; 6,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 13,12</t>
+          <t>-11,09; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 1,86</t>
+          <t>-8,75; 8,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,09</t>
+          <t>-9,76; 7,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,86; -0,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 4,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 4,66</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-41,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-25,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,84%</t>
+          <t>-19,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>-17,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-14,68%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,63%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 46,7</t>
+          <t>-71,17; 5,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 44,78</t>
+          <t>-61,02; 32,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 13,26</t>
+          <t>-58,59; 40,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 74,3</t>
+          <t>-49,58; 30,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 12,19</t>
+          <t>-36,89; 55,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 40,6</t>
+          <t>-41,12; 46,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 0,54</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-42,47; 26,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-38,94; 29,41</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>-11,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>8,98</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 8,26</t>
+          <t>-33,54; 18,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 22,61</t>
+          <t>-25,45; 36,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 7,15</t>
+          <t>-39,66; 14,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 20,67</t>
+          <t>-32,72; 11,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 3,53</t>
+          <t>-20,63; 23,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 18,03</t>
+          <t>-18,24; 29,55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-26,72; 7,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,93; 22,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; 15,3</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,46%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>-45,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>-28,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-30,97%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>23,46%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-30,78%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,42%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,57; 102,38</t>
+          <t>-81,87; 187,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 253,66</t>
+          <t>-61,14; 310,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 33,01</t>
+          <t>-88,08; 113,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 96,06</t>
+          <t>-65,46; 45,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 22,41</t>
+          <t>-43,07; 86,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 109,22</t>
+          <t>-37,68; 104,35</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-65,95; 38,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; 99,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-49,65; 66,94</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,04</t>
+          <t>-13,47; 0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 7,28</t>
+          <t>-11,83; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -1,6</t>
+          <t>-10,57; 4,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,3</t>
+          <t>-11,78; -0,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -1,21</t>
+          <t>-9,12; 3,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,76</t>
+          <t>-5,06; 8,76</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; -1,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 1,46</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,46</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-25,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-17,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-24,94%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 12,17</t>
+          <t>-49,51; 5,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 44,37</t>
+          <t>-44,76; 16,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -7,02</t>
+          <t>-39,94; 24,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 45,37</t>
+          <t>-41,27; -1,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -5,86</t>
+          <t>-31,2; 16,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 33,13</t>
+          <t>-17,5; 38,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-39,53; -6,76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,66; 6,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-19,61; 20,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
